--- a/res/report-short-test.xlsx
+++ b/res/report-short-test.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\ConcreteFlowchartServer\res\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699DCF2D-57BA-4FC7-856E-8827A70F9C5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="453" windowWidth="16500" windowHeight="6307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>B3F ID</t>
   </si>
@@ -167,32 +162,79 @@
   </si>
   <si>
     <t>40e526d7-263a-4f74-b935-1359b190b950</t>
+  </si>
+  <si>
+    <t>n\a</t>
+  </si>
+  <si>
+    <t>Casting: OK</t>
+  </si>
+  <si>
+    <t>Casting</t>
+  </si>
+  <si>
+    <t>2018-09-10 05:00:13.436102</t>
+  </si>
+  <si>
+    <t>Casting: Bad</t>
+  </si>
+  <si>
+    <t>2018-09-10 05:07:29.746704</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2018-04-21 05:24:39</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>2018-09-10 05:33:02.786673</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -207,44 +249,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -532,19 +557,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="12" max="12" width="22.64453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -622,6 +648,7 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
+      <c r="D2" t="s"/>
       <c r="E2" t="s">
         <v>25</v>
       </c>
@@ -631,38 +658,43 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
-        <v>43211.225451388891</v>
+      <c r="L2" s="2" t="n">
+        <v>43211.22545138889</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>50</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>112</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>
       </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
       <c r="V2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -672,6 +704,7 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
+      <c r="D3" t="s"/>
       <c r="E3" t="s">
         <v>25</v>
       </c>
@@ -681,38 +714,43 @@
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43211.225439814807</v>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>43211.22543981481</v>
       </c>
       <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>100</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>102</v>
       </c>
       <c r="P3" t="s">
         <v>34</v>
       </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
       <c r="V3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -722,6 +760,7 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
+      <c r="D4" t="s"/>
       <c r="E4" t="s">
         <v>25</v>
       </c>
@@ -731,38 +770,43 @@
       <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>43211.225451388891</v>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>43211.22545138889</v>
       </c>
       <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>25</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>115</v>
       </c>
       <c r="P4" t="s">
         <v>39</v>
       </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
       <c r="V4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -772,6 +816,7 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
+      <c r="D5" t="s"/>
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -781,38 +826,43 @@
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>43211.225462962961</v>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>43211.22546296296</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>100</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>107</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
       </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
       <c r="V5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -822,6 +872,7 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
+      <c r="D6" t="s"/>
       <c r="E6" t="s">
         <v>25</v>
       </c>
@@ -831,38 +882,43 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>43211.225451388891</v>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>43211.22545138889</v>
       </c>
       <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>75</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>109</v>
       </c>
       <c r="P6" t="s">
         <v>39</v>
       </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
       <c r="V6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -872,6 +928,7 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
+      <c r="D7" t="s"/>
       <c r="E7" t="s">
         <v>25</v>
       </c>
@@ -881,38 +938,43 @@
       <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>43211.225451388891</v>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>43211.22545138889</v>
       </c>
       <c r="M7" t="s">
         <v>28</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>50</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>113</v>
       </c>
       <c r="P7" t="s">
         <v>34</v>
       </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
       <c r="V7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -922,6 +984,7 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
+      <c r="D8" t="s"/>
       <c r="E8" t="s">
         <v>25</v>
       </c>
@@ -931,38 +994,247 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>43211.225474537037</v>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>43211.22547453704</v>
       </c>
       <c r="M8" t="s">
         <v>38</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>50</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>116</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
       </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
       <c r="V8" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>43211.22545138889</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="n">
+        <v>50</v>
+      </c>
+      <c r="O9" t="n">
+        <v>112</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" t="n">
+        <v>26</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="n">
+        <v>20</v>
+      </c>
+      <c r="U9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>43211.22545138889</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="n">
+        <v>50</v>
+      </c>
+      <c r="O10" t="n">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" t="n">
+        <v>24</v>
+      </c>
+      <c r="S10" t="n">
+        <v>26</v>
+      </c>
+      <c r="T10" t="n">
+        <v>26</v>
+      </c>
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/res/report-short-test.xlsx
+++ b/res/report-short-test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>B3F ID</t>
   </si>
@@ -182,6 +182,15 @@
     <t>2018-09-10 05:07:29.746704</t>
   </si>
   <si>
+    <t>2018-09-10 06:33:58.032318</t>
+  </si>
+  <si>
+    <t>Esame 2</t>
+  </si>
+  <si>
+    <t>Maturation: OK</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -197,19 +206,16 @@
     <t>112</t>
   </si>
   <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>2018-09-10 05:33:02.786673</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>Maturation</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>2018-09-10 06:34:28.315385</t>
   </si>
 </sst>
 </file>
@@ -562,7 +568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,31 +1192,31 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>43211.22545138889</v>
       </c>
       <c r="M11" t="s">
         <v>28</v>
       </c>
-      <c r="N11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" t="s">
-        <v>59</v>
+      <c r="N11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O11" t="n">
+        <v>112</v>
       </c>
       <c r="P11" t="s">
         <v>29</v>
@@ -1218,20 +1224,88 @@
       <c r="Q11" t="s">
         <v>51</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" t="n">
+        <v>28</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="n">
+        <v>20</v>
+      </c>
+      <c r="U11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" t="s">
         <v>60</v>
       </c>
-      <c r="S11" t="s">
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
         <v>61</v>
       </c>
-      <c r="T11" t="s">
+      <c r="O12" t="s">
         <v>62</v>
       </c>
-      <c r="U11" t="s">
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
         <v>63</v>
       </c>
-      <c r="V11" t="s">
+      <c r="R12" t="s">
         <v>64</v>
+      </c>
+      <c r="S12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
